--- a/CDD_Entrega_1_Projeto_2.xlsx
+++ b/CDD_Entrega_1_Projeto_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Documents\Insper 2 Semestre\Ciencia dos dados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Eller\Documents\GitHub\CDD---Projeto-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F613FE4-DA34-4685-B8A9-94014E1D9632}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A12AA-1F09-4F90-B998-A122853639FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="487">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1640,19 +1640,7 @@
     <t>@sfckikee faz em qual smart fit?</t>
   </si>
   <si>
-    <t>Classifição</t>
-  </si>
-  <si>
-    <t>BRYAN, GOOD LUCK. CLASSIFY THESE ONES YOUR MONKEY!</t>
-  </si>
-  <si>
-    <t>0 - NEGATIVO</t>
-  </si>
-  <si>
-    <t>1 - IRRELEVANTE</t>
-  </si>
-  <si>
-    <t>2 - POSITIVO</t>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1732,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1761,7 +1749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2081,19 +2069,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2101,43 +2089,31 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="D2">
-        <f>COUNTIF($B$2:$B$301,1)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="D3">
-        <f>COUNTIF($B$2:$B$301,0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <f>COUNTIF($B$2:$B$301,2)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2185,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2209,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2217,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2249,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2257,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2273,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2281,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2289,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2313,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2321,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2329,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2337,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2345,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2353,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2361,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2377,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2385,7 +2361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2401,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2409,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2417,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2425,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -2433,7 +2409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2441,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -2457,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2473,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2481,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2497,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2505,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2513,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2521,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2529,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -2561,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -2569,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -2577,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -2585,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -2593,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -2601,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -2609,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>31</v>
       </c>
@@ -2617,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -2625,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
@@ -2633,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -2641,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -2657,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -2665,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -2673,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -2681,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -2689,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -2697,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
@@ -2705,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
@@ -2713,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
@@ -2721,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -2729,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
@@ -2737,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
@@ -2745,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
@@ -2753,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
@@ -2761,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -2769,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>28</v>
       </c>
@@ -2777,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -2785,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
@@ -2793,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>83</v>
       </c>
@@ -2801,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
@@ -2809,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
@@ -2817,7 +2793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
@@ -2825,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
@@ -2833,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
@@ -2841,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
@@ -2849,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
@@ -2857,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
@@ -2865,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -2873,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
@@ -2889,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -2897,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -2905,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
@@ -2913,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>98</v>
       </c>
@@ -2921,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
@@ -2929,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
@@ -2937,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
@@ -2945,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>102</v>
       </c>
@@ -2953,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
@@ -2961,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>104</v>
       </c>
@@ -2969,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
@@ -2977,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>106</v>
       </c>
@@ -2985,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>107</v>
       </c>
@@ -2993,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>108</v>
       </c>
@@ -3001,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>109</v>
       </c>
@@ -3009,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>110</v>
       </c>
@@ -3017,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>69</v>
       </c>
@@ -3025,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
@@ -3033,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
@@ -3041,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
@@ -3049,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
@@ -3057,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
@@ -3065,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>115</v>
       </c>
@@ -3073,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>116</v>
       </c>
@@ -3081,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>117</v>
       </c>
@@ -3089,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>119</v>
       </c>
@@ -3105,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>120</v>
       </c>
@@ -3113,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>121</v>
       </c>
@@ -3121,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
@@ -3129,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>43</v>
       </c>
@@ -3137,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>123</v>
       </c>
@@ -3145,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>124</v>
       </c>
@@ -3153,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>125</v>
       </c>
@@ -3161,7 +3137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>126</v>
       </c>
@@ -3169,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>127</v>
       </c>
@@ -3177,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>128</v>
       </c>
@@ -3185,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>129</v>
       </c>
@@ -3193,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>130</v>
       </c>
@@ -3201,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>131</v>
       </c>
@@ -3209,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>132</v>
       </c>
@@ -3217,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>133</v>
       </c>
@@ -3225,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -3233,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>135</v>
       </c>
@@ -3241,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>136</v>
       </c>
@@ -3249,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>137</v>
       </c>
@@ -3257,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>138</v>
       </c>
@@ -3265,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
@@ -3273,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>140</v>
       </c>
@@ -3281,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>141</v>
       </c>
@@ -3289,7 +3265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>142</v>
       </c>
@@ -3297,7 +3273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>143</v>
       </c>
@@ -3305,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>144</v>
       </c>
@@ -3313,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>145</v>
       </c>
@@ -3321,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>146</v>
       </c>
@@ -3329,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -3337,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -3345,7 +3321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>149</v>
       </c>
@@ -3353,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>150</v>
       </c>
@@ -3361,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>151</v>
       </c>
@@ -3369,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>152</v>
       </c>
@@ -3377,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>153</v>
       </c>
@@ -3385,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>154</v>
       </c>
@@ -3393,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>155</v>
       </c>
@@ -3401,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>156</v>
       </c>
@@ -3409,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>157</v>
       </c>
@@ -3417,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>158</v>
       </c>
@@ -3425,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>159</v>
       </c>
@@ -3433,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>160</v>
       </c>
@@ -3441,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>161</v>
       </c>
@@ -3449,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>162</v>
       </c>
@@ -3457,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>163</v>
       </c>
@@ -3465,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>164</v>
       </c>
@@ -3473,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>165</v>
       </c>
@@ -3481,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>166</v>
       </c>
@@ -3489,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>167</v>
       </c>
@@ -3497,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>69</v>
       </c>
@@ -3505,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>168</v>
       </c>
@@ -3513,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
@@ -3521,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>170</v>
       </c>
@@ -3529,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>171</v>
       </c>
@@ -3537,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>172</v>
       </c>
@@ -3545,7 +3521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>173</v>
       </c>
@@ -3553,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>174</v>
       </c>
@@ -3561,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>175</v>
       </c>
@@ -3569,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>176</v>
       </c>
@@ -3577,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>177</v>
       </c>
@@ -3585,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>178</v>
       </c>
@@ -3593,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>179</v>
       </c>
@@ -3601,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>180</v>
       </c>
@@ -3609,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>181</v>
       </c>
@@ -3617,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>182</v>
       </c>
@@ -3625,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>183</v>
       </c>
@@ -3633,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>184</v>
       </c>
@@ -3641,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>185</v>
       </c>
@@ -3649,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>186</v>
       </c>
@@ -3657,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>187</v>
       </c>
@@ -3665,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>188</v>
       </c>
@@ -3673,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>189</v>
       </c>
@@ -3681,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>190</v>
       </c>
@@ -3689,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>191</v>
       </c>
@@ -3697,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>192</v>
       </c>
@@ -3705,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>193</v>
       </c>
@@ -3713,7 +3689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>194</v>
       </c>
@@ -3721,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>195</v>
       </c>
@@ -3729,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>196</v>
       </c>
@@ -3737,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>197</v>
       </c>
@@ -3745,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>198</v>
       </c>
@@ -3753,7 +3729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>199</v>
       </c>
@@ -3761,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>200</v>
       </c>
@@ -3769,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>201</v>
       </c>
@@ -3777,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>202</v>
       </c>
@@ -3785,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>203</v>
       </c>
@@ -3793,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>204</v>
       </c>
@@ -3801,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
@@ -3809,7 +3785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>206</v>
       </c>
@@ -3817,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>207</v>
       </c>
@@ -3825,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>208</v>
       </c>
@@ -3833,7 +3809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>209</v>
       </c>
@@ -3841,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>210</v>
       </c>
@@ -3849,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>211</v>
       </c>
@@ -3857,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>212</v>
       </c>
@@ -3865,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>213</v>
       </c>
@@ -3873,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>214</v>
       </c>
@@ -3881,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>215</v>
       </c>
@@ -3889,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>216</v>
       </c>
@@ -3897,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>217</v>
       </c>
@@ -3905,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>218</v>
       </c>
@@ -3913,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>219</v>
       </c>
@@ -3921,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>220</v>
       </c>
@@ -3929,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>221</v>
       </c>
@@ -3937,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>222</v>
       </c>
@@ -3945,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>43</v>
       </c>
@@ -3953,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>223</v>
       </c>
@@ -3961,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>224</v>
       </c>
@@ -3969,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>225</v>
       </c>
@@ -3977,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>226</v>
       </c>
@@ -3985,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>227</v>
       </c>
@@ -3993,7 +3969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>228</v>
       </c>
@@ -4001,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>229</v>
       </c>
@@ -4009,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>191</v>
       </c>
@@ -4017,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -4025,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>231</v>
       </c>
@@ -4033,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>232</v>
       </c>
@@ -4041,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>233</v>
       </c>
@@ -4049,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>28</v>
       </c>
@@ -4057,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>234</v>
       </c>
@@ -4065,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>235</v>
       </c>
@@ -4073,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>236</v>
       </c>
@@ -4081,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>237</v>
       </c>
@@ -4089,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>238</v>
       </c>
@@ -4097,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>239</v>
       </c>
@@ -4105,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>240</v>
       </c>
@@ -4113,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>241</v>
       </c>
@@ -4121,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>242</v>
       </c>
@@ -4129,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>243</v>
       </c>
@@ -4137,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>244</v>
       </c>
@@ -4145,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>245</v>
       </c>
@@ -4153,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>246</v>
       </c>
@@ -4161,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>247</v>
       </c>
@@ -4169,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>248</v>
       </c>
@@ -4177,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>249</v>
       </c>
@@ -4185,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>250</v>
       </c>
@@ -4193,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>251</v>
       </c>
@@ -4201,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>252</v>
       </c>
@@ -4209,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>253</v>
       </c>
@@ -4217,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>254</v>
       </c>
@@ -4225,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>255</v>
       </c>
@@ -4233,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>256</v>
       </c>
@@ -4241,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>191</v>
       </c>
@@ -4249,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>257</v>
       </c>
@@ -4257,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>258</v>
       </c>
@@ -4265,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>259</v>
       </c>
@@ -4273,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>260</v>
       </c>
@@ -4281,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>261</v>
       </c>
@@ -4289,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>262</v>
       </c>
@@ -4297,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>263</v>
       </c>
@@ -4305,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>264</v>
       </c>
@@ -4313,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>265</v>
       </c>
@@ -4321,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>266</v>
       </c>
@@ -4329,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>267</v>
       </c>
@@ -4337,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>268</v>
       </c>
@@ -4345,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>269</v>
       </c>
@@ -4353,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>270</v>
       </c>
@@ -4361,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>271</v>
       </c>
@@ -4369,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>69</v>
       </c>
@@ -4377,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>272</v>
       </c>
@@ -4385,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>273</v>
       </c>
@@ -4393,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>274</v>
       </c>
@@ -4401,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>275</v>
       </c>
@@ -4409,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>276</v>
       </c>
@@ -4417,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>277</v>
       </c>
@@ -4425,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>278</v>
       </c>
@@ -4433,7 +4409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>279</v>
       </c>
@@ -4441,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>280</v>
       </c>
@@ -4449,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>281</v>
       </c>
@@ -4457,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>282</v>
       </c>
@@ -4465,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>283</v>
       </c>
@@ -4473,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>284</v>
       </c>
@@ -4481,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>285</v>
       </c>
@@ -4489,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>286</v>
       </c>
@@ -4497,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>287</v>
       </c>
@@ -4505,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>288</v>
       </c>
@@ -4520,19 +4496,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
@@ -4540,59 +4516,51 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>295</v>
       </c>
@@ -4600,31 +4568,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>299</v>
       </c>
@@ -4632,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>300</v>
       </c>
@@ -4640,23 +4608,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -4664,31 +4632,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>306</v>
       </c>
@@ -4696,15 +4664,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>308</v>
       </c>
@@ -4712,23 +4680,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>311</v>
       </c>
@@ -4736,87 +4704,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>322</v>
       </c>
@@ -4824,71 +4792,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>331</v>
       </c>
@@ -4896,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>332</v>
       </c>
@@ -4904,23 +4872,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>335</v>
       </c>
@@ -4928,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
@@ -4936,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -4944,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>336</v>
       </c>
@@ -4952,15 +4920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>338</v>
       </c>
@@ -4968,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>339</v>
       </c>
@@ -4976,39 +4944,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B55" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B57" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>343</v>
       </c>
@@ -5016,15 +4984,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>345</v>
       </c>
@@ -5032,23 +5000,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B62" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>348</v>
       </c>
@@ -5056,31 +5024,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B65" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>352</v>
       </c>
@@ -5088,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>353</v>
       </c>
@@ -5096,15 +5064,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>355</v>
       </c>
@@ -5112,7 +5080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>356</v>
       </c>
@@ -5120,63 +5088,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B78" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>364</v>
       </c>
@@ -5184,15 +5152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>366</v>
       </c>
@@ -5200,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>367</v>
       </c>
@@ -5208,39 +5176,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B86" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>372</v>
       </c>
@@ -5248,23 +5216,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>375</v>
       </c>
@@ -5272,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>376</v>
       </c>
@@ -5280,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>377</v>
       </c>
@@ -5288,47 +5256,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B98" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>383</v>
       </c>
@@ -5336,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>384</v>
       </c>
@@ -5344,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>385</v>
       </c>
@@ -5352,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>386</v>
       </c>
@@ -5360,23 +5328,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>389</v>
       </c>
@@ -5384,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>390</v>
       </c>
@@ -5392,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>391</v>
       </c>
@@ -5400,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>392</v>
       </c>
@@ -5408,23 +5376,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B109" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B110" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>395</v>
       </c>
@@ -5432,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>396</v>
       </c>
@@ -5440,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>397</v>
       </c>
@@ -5448,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>398</v>
       </c>
@@ -5456,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>399</v>
       </c>
@@ -5464,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>400</v>
       </c>
@@ -5472,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>401</v>
       </c>
@@ -5480,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>402</v>
       </c>
@@ -5488,31 +5456,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B121" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>406</v>
       </c>
@@ -5520,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>407</v>
       </c>
@@ -5528,15 +5496,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B124" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>409</v>
       </c>
@@ -5544,31 +5512,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B126" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B127" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>413</v>
       </c>
@@ -5576,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>414</v>
       </c>
@@ -5584,39 +5552,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B131" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B134" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>419</v>
       </c>
@@ -5624,15 +5592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>421</v>
       </c>
@@ -5640,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>422</v>
       </c>
@@ -5648,23 +5616,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B139" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B140" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>425</v>
       </c>
@@ -5672,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>426</v>
       </c>
@@ -5680,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>427</v>
       </c>
@@ -5688,15 +5656,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>429</v>
       </c>
@@ -5704,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>430</v>
       </c>
@@ -5712,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>431</v>
       </c>
@@ -5720,31 +5688,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B150" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>435</v>
       </c>
@@ -5752,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>436</v>
       </c>
@@ -5760,15 +5728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B153" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>438</v>
       </c>
@@ -5776,15 +5744,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>440</v>
       </c>
@@ -5792,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>441</v>
       </c>
@@ -5800,23 +5768,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B158" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B159" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>444</v>
       </c>
@@ -5824,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>445</v>
       </c>
@@ -5832,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>446</v>
       </c>
@@ -5840,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>447</v>
       </c>
@@ -5848,23 +5816,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B164" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B165" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>450</v>
       </c>
@@ -5872,55 +5840,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B167" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B168" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B169" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>454</v>
       </c>
       <c r="B170" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B171" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B172" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>457</v>
       </c>
@@ -5928,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>458</v>
       </c>
@@ -5936,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>459</v>
       </c>
@@ -5944,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>460</v>
       </c>
@@ -5952,15 +5920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B177" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>462</v>
       </c>
@@ -5968,39 +5936,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B180" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B181" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B182" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>467</v>
       </c>
@@ -6008,15 +5976,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B184" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>469</v>
       </c>
@@ -6024,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>470</v>
       </c>
@@ -6032,23 +6000,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>471</v>
       </c>
       <c r="B187" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B188" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>473</v>
       </c>
@@ -6056,15 +6024,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B190" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>475</v>
       </c>
@@ -6072,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>476</v>
       </c>
@@ -6080,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>477</v>
       </c>
@@ -6088,15 +6056,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B194" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>479</v>
       </c>
@@ -6104,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>480</v>
       </c>
@@ -6112,15 +6080,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B197" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>482</v>
       </c>
@@ -6128,28 +6096,528 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B199" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B200" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>485</v>
       </c>
       <c r="B201" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
